--- a/classification/droptc/sentence/neo-bert/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/14298463/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5795730948448181</v>
+        <v>0.6003425121307373</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9135105013847351</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4337235391139984</v>
+        <v>0.6803698539733887</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8964383006095886</v>
+        <v>0.67618328332901</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7794365286827087</v>
+        <v>0.9992720484733582</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7405915856361389</v>
+        <v>0.9967823028564453</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6721497774124146</v>
+        <v>0.9936240911483765</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.874474823474884</v>
+        <v>0.9852391481399536</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7478873729705811</v>
+        <v>0.9936240911483765</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8597221970558167</v>
+        <v>0.9938104748725891</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7640396952629089</v>
+        <v>0.9961175918579102</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8452706336975098</v>
+        <v>0.9875043034553528</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4739007353782654</v>
+        <v>0.9932616353034973</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7450244426727295</v>
+        <v>0.5277277231216431</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6981855630874634</v>
+        <v>0.906737744808197</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.659326434135437</v>
+        <v>0.9606814384460449</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7109248042106628</v>
+        <v>0.7940828800201416</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8207236528396606</v>
+        <v>0.9977356195449829</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3934133350849152</v>
+        <v>0.8559606671333313</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4923898279666901</v>
+        <v>0.9982512593269348</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4548231959342957</v>
+        <v>0.9881750345230103</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3900995552539825</v>
+        <v>0.9913405776023865</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9793004989624023</v>
+        <v>0.9981783628463745</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.950924813747406</v>
+        <v>0.7020105719566345</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5038220286369324</v>
+        <v>0.558435320854187</v>
       </c>
     </row>
     <row r="27">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4084533751010895</v>
+        <v>0.9981895089149475</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9829373955726624</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9582405090332031</v>
+        <v>0.9947367310523987</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9238492846488953</v>
+        <v>0.9735931158065796</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7719771862030029</v>
+        <v>0.9836411476135254</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.941887378692627</v>
+        <v>0.8616167902946472</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8623628616333008</v>
+        <v>0.9620491862297058</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4834436476230621</v>
+        <v>0.9502652287483215</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9452027082443237</v>
+        <v>0.9955938458442688</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5008794069290161</v>
+        <v>0.9977895021438599</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9108733534812927</v>
+        <v>0.9252687096595764</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8435550928115845</v>
+        <v>0.9932170510292053</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6951578855514526</v>
+        <v>0.9462078809738159</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5913114547729492</v>
+        <v>0.3288578689098358</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9760206937789917</v>
+        <v>0.9836108684539795</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.9710728526115417</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7104243636131287</v>
+        <v>0.996990442276001</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5016898512840271</v>
+        <v>0.5869746804237366</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8425731062889099</v>
+        <v>0.9723539352416992</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3934133350849152</v>
+        <v>0.9075241684913635</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8728652596473694</v>
+        <v>0.7713503837585449</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8890586495399475</v>
+        <v>0.9932710528373718</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8103662729263306</v>
+        <v>0.9984357953071594</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6153384447097778</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5411830544471741</v>
+        <v>0.4877515733242035</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8667497038841248</v>
+        <v>0.9515316486358643</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9582405090332031</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8131471872329712</v>
+        <v>0.9036827683448792</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9231454730033875</v>
+        <v>0.9995637536048889</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4205546975135803</v>
+        <v>0.9993584752082825</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6053606867790222</v>
+        <v>0.9869819283485413</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4876057803630829</v>
+        <v>0.9767296314239502</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.628129243850708</v>
+        <v>0.9896093606948853</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9385393261909485</v>
+        <v>0.985380232334137</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5166618824005127</v>
+        <v>0.9819388389587402</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4782887101173401</v>
+        <v>0.9945195317268372</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6938543915748596</v>
+        <v>0.901197075843811</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4092292189598083</v>
+        <v>0.8490840196609497</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.853696346282959</v>
+        <v>0.9969618916511536</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8649647235870361</v>
+        <v>0.9969618916511536</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7237233519554138</v>
+        <v>0.8228956460952759</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5864342451095581</v>
+        <v>0.9969618916511536</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9538384079933167</v>
+        <v>0.9225655198097229</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4354975521564484</v>
+        <v>0.9639783501625061</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.678597092628479</v>
+        <v>0.9349974393844604</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9000090360641479</v>
+        <v>0.9975699782371521</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.691957950592041</v>
+        <v>0.9780238270759583</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6841831207275391</v>
+        <v>0.85081946849823</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4288224279880524</v>
+        <v>0.9178866147994995</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9898974895477295</v>
+        <v>0.9780238270759583</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4292033910751343</v>
+        <v>0.9780842661857605</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9462506175041199</v>
+        <v>0.9780238270759583</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.9994269609451294</v>
       </c>
     </row>
     <row r="80">
@@ -2667,14 +2667,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4279497563838959</v>
+        <v>0.9668009281158447</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8997262716293335</v>
+        <v>0.8701704740524292</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5652797818183899</v>
+        <v>0.9668009281158447</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.739233672618866</v>
+        <v>0.4175315201282501</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.4175315201282501</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9048773050308228</v>
+        <v>0.9999635219573975</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9537106156349182</v>
+        <v>0.9953948855400085</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8179656267166138</v>
+        <v>0.9394882321357727</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8876113295555115</v>
+        <v>0.9758002161979675</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4751513004302979</v>
+        <v>0.9328901767730713</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4200595617294312</v>
+        <v>0.997445821762085</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6542221307754517</v>
+        <v>0.9972001314163208</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9134865999221802</v>
+        <v>0.996058464050293</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7913022637367249</v>
+        <v>0.9962672591209412</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9638343453407288</v>
+        <v>0.9963531494140625</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8493364453315735</v>
+        <v>0.9962531328201294</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.723304271697998</v>
+        <v>0.739983856678009</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.835137665271759</v>
+        <v>0.9204769134521484</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6425895094871521</v>
+        <v>0.9989916682243347</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8667937517166138</v>
+        <v>0.5742393136024475</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9316133260726929</v>
+        <v>0.9925621151924133</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7767276167869568</v>
+        <v>0.9392645359039307</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4797520637512207</v>
+        <v>0.7696443200111389</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9264398217201233</v>
+        <v>0.5217684507369995</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8930881023406982</v>
+        <v>0.8854387998580933</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8268547058105469</v>
+        <v>0.9943812489509583</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9031331539154053</v>
+        <v>0.9606946706771851</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9460307359695435</v>
+        <v>0.8900298476219177</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5397825837135315</v>
+        <v>0.9660103917121887</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7659302949905396</v>
+        <v>0.9406483769416809</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.638360321521759</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.9623838067054749</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9264398217201233</v>
+        <v>0.9362995028495789</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5450698137283325</v>
+        <v>0.9161947965621948</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7915574908256531</v>
+        <v>0.9695391654968262</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8117401003837585</v>
+        <v>0.8576328158378601</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9398158192634583</v>
+        <v>0.9408860802650452</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8191489577293396</v>
+        <v>0.9949593544006348</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7959258556365967</v>
+        <v>0.9701093435287476</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4324133098125458</v>
+        <v>0.5971863865852356</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3496354222297668</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9149668216705322</v>
+        <v>0.9872108697891235</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7054840326309204</v>
+        <v>0.9986735582351685</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4846512377262115</v>
+        <v>0.9872108697891235</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7995128035545349</v>
+        <v>0.9986735582351685</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4937149584293365</v>
+        <v>0.9872108697891235</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6804630160331726</v>
+        <v>0.9999347925186157</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4923898279666901</v>
+        <v>0.5302942395210266</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8942121863365173</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5949642658233643</v>
+        <v>0.4255930185317993</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4259071350097656</v>
+        <v>0.7524892091751099</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8153592944145203</v>
+        <v>0.9995867609977722</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8976998925209045</v>
+        <v>0.5002355575561523</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5451775789260864</v>
+        <v>0.9890640377998352</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6213933229446411</v>
+        <v>0.8682666420936584</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.8898928761482239</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6253453493118286</v>
+        <v>0.9333069920539856</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5736370086669922</v>
+        <v>0.9940667152404785</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4772341549396515</v>
+        <v>0.8038768172264099</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9560285210609436</v>
+        <v>0.9983927607536316</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7219070792198181</v>
+        <v>0.9883221983909607</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7796926498413086</v>
+        <v>0.9758120179176331</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9388561248779297</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.74376380443573</v>
+        <v>0.541389524936676</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7328971028327942</v>
+        <v>0.9987524747848511</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.748501718044281</v>
+        <v>0.541389524936676</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.7719809412956238</v>
+        <v>0.9990090131759644</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6938543915748596</v>
+        <v>0.9225655198097229</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5720436573028564</v>
+        <v>0.9659952521324158</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.8776040077209473</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7781464457511902</v>
+        <v>0.7062180638313293</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6115763783454895</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7959258556365967</v>
+        <v>0.9206206798553467</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4849080741405487</v>
+        <v>0.9991336464881897</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5030992031097412</v>
+        <v>0.9791624546051025</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4084832072257996</v>
+        <v>0.9976049661636353</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7818855047225952</v>
+        <v>0.9581488966941833</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8972849249839783</v>
+        <v>0.997581958770752</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9676507711410522</v>
+        <v>0.9780517220497131</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6773565411567688</v>
+        <v>0.9874557256698608</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5833359360694885</v>
+        <v>0.5716314315795898</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8889104723930359</v>
+        <v>0.9976372718811035</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7410009503364563</v>
+        <v>0.9726436734199524</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8723200559616089</v>
+        <v>0.8212531208992004</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5864342451095581</v>
+        <v>0.9550309777259827</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7959258556365967</v>
+        <v>0.9969183206558228</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9046562910079956</v>
+        <v>0.9704434275627136</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7478873729705811</v>
+        <v>0.9451000690460205</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9556854963302612</v>
+        <v>0.4020438194274902</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8972379565238953</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6944354176521301</v>
+        <v>0.9451000690460205</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5674821734428406</v>
+        <v>0.7785204648971558</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8915516138076782</v>
+        <v>0.9979782700538635</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.991399884223938</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7231347560882568</v>
+        <v>0.9970899820327759</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9805951118469238</v>
+        <v>0.991399884223938</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9527073502540588</v>
+        <v>0.991399884223938</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4544817507266998</v>
+        <v>0.9970899820327759</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5576307773590088</v>
+        <v>0.9916031956672668</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.976387619972229</v>
+        <v>0.9644520282745361</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.757422924041748</v>
+        <v>0.9882254600524902</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9440394639968872</v>
+        <v>0.9705161452293396</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8906062841415405</v>
+        <v>0.9905000329017639</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7219070792198181</v>
+        <v>0.9548085331916809</v>
       </c>
     </row>
     <row r="184">
@@ -5579,14 +5579,14 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4970835447311401</v>
+        <v>0.9993264675140381</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.581841766834259</v>
+        <v>0.9991470575332642</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4216088056564331</v>
+        <v>0.9932994842529297</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9180182218551636</v>
+        <v>0.9910951852798462</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7412629127502441</v>
+        <v>0.9976692795753479</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.8944254517555237</v>
+        <v>0.9976165294647217</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5720436573028564</v>
+        <v>0.9992303848266602</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6436742544174194</v>
+        <v>0.7288423776626587</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.357966274023056</v>
+        <v>0.9974722266197205</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8814375996589661</v>
+        <v>0.8867623805999756</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7096843719482422</v>
+        <v>0.9431215524673462</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9181696176528931</v>
+        <v>0.904563307762146</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7629728317260742</v>
+        <v>0.9993017911911011</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5720436573028564</v>
+        <v>0.9996192455291748</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4837020635604858</v>
+        <v>0.9990673661231995</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4876057803630829</v>
+        <v>0.9009503126144409</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.7539945244789124</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.964127779006958</v>
+        <v>0.9984808564186096</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.8944254517555237</v>
+        <v>0.7337287068367004</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9314236044883728</v>
+        <v>0.7909361720085144</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5963550806045532</v>
+        <v>0.9763848185539246</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.4612911343574524</v>
+        <v>0.7326318025588989</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8964383006095886</v>
+        <v>0.9991235136985779</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7219070792198181</v>
+        <v>0.9627985954284668</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7478873729705811</v>
+        <v>0.9693751335144043</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5280351638793945</v>
+        <v>0.7807618975639343</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.912503182888031</v>
+        <v>0.9934365749359131</v>
       </c>
     </row>
   </sheetData>
